--- a/Data/CaLSeN_2021.xlsx
+++ b/Data/CaLSeN_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Queer\RStudio\TickEcology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59731CC-F2FD-463C-9E44-759C8D7BC918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761C55E2-E72A-401C-B6A5-04FFA37891FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{9D9EDEF7-D5ED-4FF8-8948-D06853CE1E8F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9D9EDEF7-D5ED-4FF8-8948-D06853CE1E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="SiteSpecies" sheetId="13" r:id="rId1"/>
@@ -957,10 +957,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1029,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1080,6 +1081,15 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,9 +1464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC7A92D-A20F-4AF3-B0D7-7BD03D2558DE}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1465,8 +1475,8 @@
     <col min="4" max="4" width="30.36328125" style="12" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="16" style="24" customWidth="1"/>
     <col min="9" max="9" width="12.36328125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.36328125" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.36328125" style="15" bestFit="1" customWidth="1"/>
@@ -1498,13 +1508,13 @@
       <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="21" t="s">
@@ -1576,10 +1586,10 @@
       <c r="F2" s="7">
         <v>44398</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="24">
         <v>0.57291666666666663</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="24">
         <v>0.65972222222222221</v>
       </c>
       <c r="I2" s="15">
@@ -1653,10 +1663,10 @@
       <c r="F3" s="7">
         <v>44399</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="24">
         <v>0.38194444444444442</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="24">
         <v>0.47222222222222227</v>
       </c>
       <c r="I3" s="15">
@@ -1732,10 +1742,10 @@
       <c r="F4" s="7">
         <v>44399</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="24">
         <v>0.55763888888888891</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="24">
         <v>0.63888888888888895</v>
       </c>
       <c r="I4" s="15">
@@ -1811,10 +1821,10 @@
       <c r="F5" s="7">
         <v>44398</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="24">
         <v>0.375</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="24">
         <v>0.4375</v>
       </c>
       <c r="I5" s="15">
@@ -1888,10 +1898,10 @@
       <c r="F6" s="7">
         <v>44400</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="24">
         <v>0.40277777777777773</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="24">
         <v>0.5</v>
       </c>
       <c r="I6" s="15">
@@ -1965,10 +1975,10 @@
       <c r="F7" s="7">
         <v>44407</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="24">
         <v>0.4513888888888889</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="24">
         <v>0.51458333333333328</v>
       </c>
       <c r="I7" s="15">
@@ -2042,10 +2052,10 @@
       <c r="F8" s="7">
         <v>44427</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="24">
         <v>0.37847222222222227</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="24">
         <v>0.4375</v>
       </c>
       <c r="I8" s="15">
@@ -2119,10 +2129,10 @@
       <c r="F9" s="7">
         <v>44393</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="24">
         <v>0.49305555555555558</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="24">
         <v>0.5625</v>
       </c>
       <c r="I9" s="15">
@@ -2196,10 +2206,10 @@
       <c r="F10" s="7">
         <v>44392</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="24">
         <v>0.37291666666666662</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="24">
         <v>0.5</v>
       </c>
       <c r="I10" s="15">
@@ -2273,10 +2283,10 @@
       <c r="F11" s="7">
         <v>44396</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="24">
         <v>0.4375</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="24">
         <v>0.5625</v>
       </c>
       <c r="I11" s="15">
@@ -2350,10 +2360,10 @@
       <c r="F12" s="7">
         <v>44405</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="24">
         <v>0.40972222222222227</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="24">
         <v>0.50694444444444442</v>
       </c>
       <c r="I12" s="15">
@@ -2427,10 +2437,10 @@
       <c r="F13" s="7">
         <v>44405</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="24">
         <v>0.64236111111111105</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="24">
         <v>0.71180555555555547</v>
       </c>
       <c r="I13" s="15">
@@ -2504,10 +2514,10 @@
       <c r="F14" s="7">
         <v>44404</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="24">
         <v>0.63888888888888895</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="24">
         <v>0.72916666666666663</v>
       </c>
       <c r="I14" s="15">
@@ -2581,10 +2591,10 @@
       <c r="F15" s="7">
         <v>44403</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="24">
         <v>0.53888888888888886</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="24">
         <v>0.64583333333333337</v>
       </c>
       <c r="I15" s="15">
@@ -2665,8 +2675,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
@@ -2692,8 +2702,8 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
@@ -2719,8 +2729,8 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -2746,8 +2756,8 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
@@ -2773,8 +2783,8 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -2800,8 +2810,8 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -7369,8 +7379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC48616-4005-4E47-B053-06B246EE1FDB}">
   <dimension ref="A1:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
